--- a/Wissenschaftliches Arbeiten und Forschungsmethoden_Termine.xlsx
+++ b/Wissenschaftliches Arbeiten und Forschungsmethoden_Termine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephangoerigk/Desktop/Universität/CFH/Lehre/Bachelor/Empirisch-wissenschaftliches Arbeiten/VO_Wissenschaftliches Arbeiten und Forschungsmethoden/WAF_Folien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caro\Documents\CFH\Lehre\WAF_Folien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A56473-7530-2A4B-8A38-F693F3B2626F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF059AC-30FF-4A1E-8E5B-3E58159C6C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40160" yWindow="500" windowWidth="27040" windowHeight="15060" xr2:uid="{2F7FBD6D-06A1-CD4E-B3C2-12F6DAD39F9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F7FBD6D-06A1-CD4E-B3C2-12F6DAD39F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Einheit</t>
   </si>
@@ -33,89 +33,127 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Thema</t>
-  </si>
-  <si>
-    <t>Begriffe und Regeln empirischer Forschung</t>
-  </si>
-  <si>
-    <t>Studiendesigns</t>
-  </si>
-  <si>
-    <t>Qualitative Forschungsmethoden</t>
-  </si>
-  <si>
-    <t>Recherche und Literatur</t>
-  </si>
-  <si>
     <t>Publikation wissenschaftlicher Ergebnisse</t>
   </si>
   <si>
-    <t>Digitale Datenerhebung</t>
-  </si>
-  <si>
-    <t>Gute wissenschaftliche Praxis und Open Science</t>
-  </si>
-  <si>
     <t>Freie Spitze und Fragen</t>
   </si>
   <si>
-    <t>Planung von Studien</t>
-  </si>
-  <si>
     <t>Durchführung von Studien</t>
   </si>
   <si>
     <t>Auswertung von Studien</t>
   </si>
   <si>
-    <t xml:space="preserve">Gütekriterien </t>
-  </si>
-  <si>
-    <t>Themensuche und Bewertung von Untersuchungsideen</t>
-  </si>
-  <si>
-    <t>Bortz 2.3</t>
-  </si>
-  <si>
-    <t>Bortz 2.5</t>
-  </si>
-  <si>
-    <t>Bortz 2.6</t>
-  </si>
-  <si>
-    <t>Bortz 2.7</t>
-  </si>
-  <si>
-    <t>Operationalisierung: Zählen, Testen, Befragen, Beobachten</t>
-  </si>
-  <si>
-    <t>Bortz 4</t>
-  </si>
-  <si>
-    <t>Bortz 2.1-2</t>
-  </si>
-  <si>
-    <t>Bortz 1</t>
-  </si>
-  <si>
-    <t>Bortz 5</t>
-  </si>
-  <si>
-    <t>Quelle</t>
+    <t>Operationalisierung</t>
+  </si>
+  <si>
+    <t>Datenvisualisierung</t>
+  </si>
+  <si>
+    <t>Publikation wissenschaftlicher Daten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Wissenschaftssystem und gute wissenschaftliche Praxis </t>
+  </si>
+  <si>
+    <t>Fortgeschrittenes reproduzierbares Arbeiten</t>
+  </si>
+  <si>
+    <t>Puffer</t>
+  </si>
+  <si>
+    <t>Rückmeldung für Teilnehmer</t>
+  </si>
+  <si>
+    <t>OSF Projekt</t>
+  </si>
+  <si>
+    <t>Anonymisierungsübung</t>
+  </si>
+  <si>
+    <t>Git &amp; Websites</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Sampling- und Analyseplan</t>
+  </si>
+  <si>
+    <t>Theoriearbeit &amp; Studiendesign</t>
+  </si>
+  <si>
+    <t>p-Hacking App, Code-Review, Exploration &amp; Bayes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Präregistrierung finalisieren &amp; Daten sammeln</t>
+  </si>
+  <si>
+    <t>Hintergrundwissen &amp; Theorieinput Thema</t>
+  </si>
+  <si>
+    <t>Praxisteil Thema</t>
+  </si>
+  <si>
+    <t>Präregistrierung im empirischen Forschungsprozess &amp; Themensuche</t>
+  </si>
+  <si>
+    <t>Themensuche</t>
+  </si>
+  <si>
+    <t>Forschungsfrage</t>
+  </si>
+  <si>
+    <t>Hypothese, Studiendesign, Analyseplan</t>
+  </si>
+  <si>
+    <t>Poweranalyse</t>
+  </si>
+  <si>
+    <t>Operationalisierung, Implementierung &amp; Testdurchlauf</t>
+  </si>
+  <si>
+    <t>Literaturrecherche, Referenzen &amp; Bewertung von Untersuchungsideen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\.m\.yy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,9 +176,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -457,214 +504,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16DFA94-C377-5646-8699-03C07B5DC979}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="83.75" customWidth="1"/>
+    <col min="4" max="4" width="85.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>44847</v>
+      <c r="B2" s="2">
+        <v>45211</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44854</v>
+      <c r="B3" s="2">
+        <v>45218</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44861</v>
+      <c r="B4" s="2">
+        <v>45225</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44868</v>
+      <c r="B5" s="2">
+        <v>45232</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>44875</v>
+      <c r="B6" s="2">
+        <v>45239</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>44889</v>
+      <c r="B7" s="2">
+        <v>45246</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>44896</v>
+      <c r="B8" s="2">
+        <v>45253</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>44903</v>
+      <c r="B9" s="2">
+        <v>45267</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>44910</v>
+      <c r="B10" s="2">
+        <v>45274</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>44931</v>
+      <c r="B11" s="2">
+        <v>45281</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>44938</v>
+      <c r="B12" s="2">
+        <v>45303</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>44945</v>
+      <c r="B13" s="2">
+        <v>45309</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>44952</v>
+      <c r="B14" s="2">
+        <v>45316</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>44959</v>
+      <c r="B15" s="2">
+        <v>45323</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>